--- a/analysis/pre_gemini_data/participant350/Sheet2.xlsx
+++ b/analysis/pre_gemini_data/participant350/Sheet2.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,267 +422,263 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condsbody</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstate4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>exteral</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>index4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal5</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>litreal</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>loopstat2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>loopstate3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methdocall4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methodcall8</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var14</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var16</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var17</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var18</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var19</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>varvar</t>
         </is>
@@ -772,25 +756,25 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
         <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -824,19 +808,19 @@
         <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -858,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -887,13 +871,13 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>6</v>
@@ -919,25 +903,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" t="n">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="H4" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I4" t="n">
         <v>61</v>
       </c>
       <c r="J4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -971,19 +955,19 @@
         <v>16</v>
       </c>
       <c r="X4" t="n">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="Y4" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
         <v>23</v>
@@ -1005,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>431</v>
+        <v>293</v>
       </c>
       <c r="AK4" t="n">
         <v>7</v>
@@ -1034,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
         <v>8</v>
@@ -1066,25 +1050,25 @@
         <v>1159.33</v>
       </c>
       <c r="D5" t="n">
-        <v>567.3099999999999</v>
+        <v>133.49</v>
       </c>
       <c r="E5" t="n">
         <v>5655.92</v>
       </c>
       <c r="F5" t="n">
-        <v>20414.25</v>
+        <v>19696.89</v>
       </c>
       <c r="G5" t="n">
-        <v>128301.79</v>
+        <v>123038.1</v>
       </c>
       <c r="H5" t="n">
-        <v>47213.02</v>
+        <v>44810.45</v>
       </c>
       <c r="I5" t="n">
         <v>25982.47</v>
       </c>
       <c r="J5" t="n">
-        <v>17349.96</v>
+        <v>16916.14</v>
       </c>
       <c r="K5" t="n">
         <v>1518.27</v>
@@ -1118,19 +1102,19 @@
         <v>5439.07</v>
       </c>
       <c r="X5" t="n">
-        <v>107090.16</v>
+        <v>102627.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>26102.26</v>
+        <v>25142.93</v>
       </c>
       <c r="Z5" t="n">
-        <v>13771.63</v>
+        <v>13588.07</v>
       </c>
       <c r="AA5" t="n">
-        <v>26357.4</v>
+        <v>25756.74</v>
       </c>
       <c r="AB5" t="n">
-        <v>7575.25</v>
+        <v>7366.75</v>
       </c>
       <c r="AC5" t="n">
         <v>11277.34</v>
@@ -1152,7 +1136,7 @@
         <v>4886.82</v>
       </c>
       <c r="AJ5" t="n">
-        <v>167826.28</v>
+        <v>123981.4</v>
       </c>
       <c r="AK5" t="n">
         <v>2752.63</v>
@@ -1181,13 +1165,13 @@
         <v>1751.87</v>
       </c>
       <c r="AU5" t="n">
-        <v>4454.86</v>
+        <v>4037.85</v>
       </c>
       <c r="AV5" t="n">
         <v>9035.65</v>
       </c>
       <c r="AW5" t="n">
-        <v>4162.5</v>
+        <v>3979</v>
       </c>
       <c r="AX5" t="n">
         <v>3386.76</v>
@@ -1207,144 +1191,144 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="F6" t="n">
-        <v>3.29</v>
+        <v>4.62</v>
       </c>
       <c r="G6" t="n">
-        <v>20.66</v>
+        <v>28.85</v>
       </c>
       <c r="H6" t="n">
-        <v>7.6</v>
+        <v>10.51</v>
       </c>
       <c r="I6" t="n">
-        <v>4.18</v>
+        <v>6.09</v>
       </c>
       <c r="J6" t="n">
-        <v>2.79</v>
+        <v>3.97</v>
       </c>
       <c r="K6" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39</v>
+        <v>2.02</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
         <v>38.38</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>3.23</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="W6" t="n">
-        <v>0.88</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
-        <v>17.24</v>
+        <v>24.06</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.22</v>
+        <v>3.19</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.24</v>
+        <v>6.04</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.82</v>
+        <v>2.64</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>1.62</v>
+        <v>2.36</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.79</v>
+        <v>1.15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27.02</v>
+        <v>29.07</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.89</v>
+        <v>1.3</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.76</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.55</v>
+        <v>0.79</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="n">
-        <v>0.78</v>
+        <v>1.13</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="7">
@@ -1360,25 +1344,25 @@
         <v>289.83</v>
       </c>
       <c r="D7" t="n">
-        <v>283.65</v>
+        <v>133.49</v>
       </c>
       <c r="E7" t="n">
         <v>332.7</v>
       </c>
       <c r="F7" t="n">
-        <v>329.26</v>
+        <v>339.6</v>
       </c>
       <c r="G7" t="n">
-        <v>299.77</v>
+        <v>303.05</v>
       </c>
       <c r="H7" t="n">
-        <v>344.62</v>
+        <v>347.37</v>
       </c>
       <c r="I7" t="n">
         <v>425.94</v>
       </c>
       <c r="J7" t="n">
-        <v>423.17</v>
+        <v>422.9</v>
       </c>
       <c r="K7" t="n">
         <v>379.57</v>
@@ -1412,19 +1396,19 @@
         <v>339.94</v>
       </c>
       <c r="X7" t="n">
-        <v>309.51</v>
+        <v>312.89</v>
       </c>
       <c r="Y7" t="n">
-        <v>303.51</v>
+        <v>302.93</v>
       </c>
       <c r="Z7" t="n">
-        <v>362.41</v>
+        <v>367.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.53</v>
+        <v>384.43</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.73</v>
+        <v>368.34</v>
       </c>
       <c r="AC7" t="n">
         <v>490.32</v>
@@ -1446,7 +1430,7 @@
         <v>407.23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>389.39</v>
+        <v>423.14</v>
       </c>
       <c r="AK7" t="n">
         <v>393.23</v>
@@ -1475,13 +1459,13 @@
         <v>350.37</v>
       </c>
       <c r="AU7" t="n">
-        <v>371.24</v>
+        <v>403.78</v>
       </c>
       <c r="AV7" t="n">
         <v>334.65</v>
       </c>
       <c r="AW7" t="n">
-        <v>416.25</v>
+        <v>442.11</v>
       </c>
       <c r="AX7" t="n">
         <v>423.35</v>
@@ -1696,336 +1680,6 @@
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
